--- a/KiCAD/VCO_2/VCO_2.xlsx
+++ b/KiCAD/VCO_2/VCO_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Kayne\Documents\KiCAD\Modular Synth\VCO_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5EFEA0-1661-430D-8E81-6D15BF9612B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB77999-CF30-4824-9D01-752A63FB0614}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>BC857BS</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -333,12 +330,6 @@
     <t>https://www.digikey.com/short/pzz29j</t>
   </si>
   <si>
-    <t>BC857BS-13-FDICT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/short/pzz2br</t>
-  </si>
-  <si>
     <t>MMBFJ112CT-ND</t>
   </si>
   <si>
@@ -628,6 +619,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/short/pzb2f3</t>
+  </si>
+  <si>
+    <t>BC847BS</t>
+  </si>
+  <si>
+    <t>BC847BS-7FDICT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/short/pz5w09</t>
   </si>
 </sst>
 </file>
@@ -1464,8 +1464,8 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,19 +1498,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(G2:G63)</f>
@@ -1525,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3">
         <v>8.7999999999999995E-2</v>
@@ -1541,10 +1541,10 @@
         <v>0.43999999999999995</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
         <v>0.19</v>
@@ -1571,10 +1571,10 @@
         <v>0.19</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
         <v>0.19</v>
@@ -1601,10 +1601,10 @@
         <v>0.19</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1615,13 +1615,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3">
         <v>0.128</v>
@@ -1631,10 +1631,10 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1645,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3">
         <v>0.65</v>
@@ -1661,10 +1661,10 @@
         <v>1.3</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
         <v>0.24</v>
@@ -1691,10 +1691,10 @@
         <v>0.24</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1705,13 +1705,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3">
         <v>0.125</v>
@@ -1721,10 +1721,10 @@
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3">
         <v>0.26</v>
@@ -1751,10 +1751,10 @@
         <v>0.26</v>
       </c>
       <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
         <v>99</v>
-      </c>
-      <c r="I9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3">
         <v>1.5</v>
@@ -1781,10 +1781,10 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3">
         <v>0.28000000000000003</v>
@@ -1811,10 +1811,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1828,10 +1828,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" s="3">
         <v>0.25</v>
@@ -1841,10 +1841,10 @@
         <v>0.25</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1855,13 +1855,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3">
         <v>0.63</v>
@@ -1871,10 +1871,10 @@
         <v>0.63</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1885,13 +1885,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1901,10 +1901,10 @@
         <v>0.91000000000000014</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1915,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3">
         <v>0.1</v>
@@ -1931,10 +1931,10 @@
         <v>0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1945,13 +1945,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3">
         <v>0.1</v>
@@ -1961,10 +1961,10 @@
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,13 +1975,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3">
         <v>0.1</v>
@@ -1991,10 +1991,10 @@
         <v>0.2</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3">
         <v>0.1</v>
@@ -2021,10 +2021,10 @@
         <v>0.1</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3">
         <v>0.1</v>
@@ -2051,10 +2051,10 @@
         <v>0.2</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3">
         <v>0.1</v>
@@ -2081,10 +2081,10 @@
         <v>0.1</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,13 +2095,13 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3">
         <v>0.1</v>
@@ -2111,10 +2111,10 @@
         <v>0.2</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2125,13 +2125,13 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3">
         <v>0.33</v>
@@ -2141,10 +2141,10 @@
         <v>0.66</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,13 +2155,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="3">
         <v>2.17</v>
@@ -2171,10 +2171,10 @@
         <v>2.17</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2185,13 +2185,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3">
         <v>0.1</v>
@@ -2201,10 +2201,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2215,13 +2215,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3">
         <v>2.8000000000000001E-2</v>
@@ -2231,10 +2231,10 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="H25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2245,13 +2245,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3">
         <v>0.1</v>
@@ -2261,10 +2261,10 @@
         <v>0.2</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2275,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
         <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
       </c>
       <c r="F27" s="3">
         <v>0.17</v>
@@ -2291,10 +2291,10 @@
         <v>0.34</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2305,13 +2305,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3">
         <v>0.1</v>
@@ -2321,10 +2321,10 @@
         <v>0.1</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3">
         <v>0.1</v>
@@ -2351,10 +2351,10 @@
         <v>0.1</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2365,13 +2365,13 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3">
         <v>0.1</v>
@@ -2381,10 +2381,10 @@
         <v>0.2</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2395,13 +2395,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3">
         <v>0.1</v>
@@ -2411,10 +2411,10 @@
         <v>0.1</v>
       </c>
       <c r="H31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2425,13 +2425,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3">
         <v>0.1</v>
@@ -2441,10 +2441,10 @@
         <v>0.1</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2455,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3">
         <v>0.1</v>
@@ -2471,10 +2471,10 @@
         <v>0.4</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2485,13 +2485,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3">
         <v>0.1</v>
@@ -2501,10 +2501,10 @@
         <v>0.1</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2515,13 +2515,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="3">
         <v>0.1</v>
@@ -2531,10 +2531,10 @@
         <v>0.1</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2545,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="3">
         <v>0.46</v>
@@ -2561,10 +2561,10 @@
         <v>0.46</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="3">
         <v>0.46</v>
@@ -2591,10 +2591,10 @@
         <v>0.46</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2605,13 +2605,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="3">
         <v>0.79</v>
@@ -2621,10 +2621,10 @@
         <v>4.74</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="3">
         <v>0.46</v>
@@ -2651,10 +2651,10 @@
         <v>0.46</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2665,13 +2665,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="3">
         <v>0.46</v>
@@ -2681,10 +2681,10 @@
         <v>0.46</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2695,13 +2695,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="3">
         <v>0.46</v>
@@ -2711,10 +2711,10 @@
         <v>0.46</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2725,13 +2725,13 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="3">
         <v>0.51</v>
@@ -2741,10 +2741,10 @@
         <v>1.02</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2755,13 +2755,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
         <v>58</v>
       </c>
-      <c r="D43" t="s">
-        <v>59</v>
-      </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="3">
         <v>2.5099999999999998</v>
@@ -2771,10 +2771,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
         <v>60</v>
       </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44" s="3">
         <v>0.87</v>
@@ -2801,10 +2801,10 @@
         <v>0.87</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2815,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
         <v>62</v>
       </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="3">
         <v>0.44</v>
@@ -2831,10 +2831,10 @@
         <v>0.44</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
         <v>64</v>
       </c>
-      <c r="D46" t="s">
-        <v>65</v>
-      </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="3">
         <v>0.46</v>
@@ -2861,10 +2861,10 @@
         <v>0.46</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
